--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1654.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1654.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.644839190025144</v>
+        <v>3.375107526779175</v>
       </c>
       <c r="B1">
-        <v>3.486606078236444</v>
+        <v>2.850160837173462</v>
       </c>
       <c r="C1">
-        <v>2.953806897511437</v>
+        <v>2.579847574234009</v>
       </c>
       <c r="D1">
-        <v>2.286569891487972</v>
+        <v>2.890549421310425</v>
       </c>
       <c r="E1">
-        <v>1.311772231923047</v>
+        <v>2.918912172317505</v>
       </c>
     </row>
   </sheetData>
